--- a/outputs-HGR-r202/g__CAG-81.xlsx
+++ b/outputs-HGR-r202/g__CAG-81.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785(reject)</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785(reject)</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785(reject)</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785(reject)</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__CAG-81.xlsx
+++ b/outputs-HGR-r202/g__CAG-81.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp900066785</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +670,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +708,11 @@
           <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp900066785</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +746,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +784,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -777,6 +822,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -810,6 +860,11 @@
           <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp900066785</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -843,6 +898,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -876,6 +936,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -909,6 +974,11 @@
           <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp900066785</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -942,6 +1012,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,6 +1050,11 @@
           <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp900066785</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1008,6 +1088,11 @@
           <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1037,6 +1122,11 @@
         <v>0.9596922281338496</v>
       </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>s__CAG-81 sp000435795</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>s__CAG-81 sp000435795</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-81.xlsx
+++ b/outputs-HGR-r202/g__CAG-81.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,29 +717,29 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37878.fa</t>
+          <t>even_MAG-GUT35591.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.961170919435551</v>
+        <v>0.9523527153541305</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0123055032847274</v>
+        <v>0.01295508871739018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01335860405997097</v>
+        <v>0.02764870093607921</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01261288953572662</v>
+        <v>0.00550896698702802</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005435397235828838</v>
+        <v>0.001527658449273156</v>
       </c>
       <c r="G8" t="n">
-        <v>8.543960441056741e-06</v>
+        <v>6.869556098962645e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.961170919435551</v>
+        <v>0.9523527153541305</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -755,105 +755,105 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38093.fa</t>
+          <t>even_MAG-GUT37878.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01476397762599267</v>
+        <v>0.961170919435551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112852373544839</v>
+        <v>0.0123055032847274</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4015573829917078</v>
+        <v>0.01335860405997097</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4576362343992332</v>
+        <v>0.01261288953572662</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01315787243075056</v>
+        <v>0.0005435397235828838</v>
       </c>
       <c r="G9" t="n">
-        <v>3.215900747655931e-05</v>
+        <v>8.543960441056741e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4576362343992332</v>
+        <v>0.961170919435551</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785</t>
+          <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785</t>
+          <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39606.fa</t>
+          <t>even_MAG-GUT38093.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9317523278886541</v>
+        <v>0.01476397762599267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01484532482260906</v>
+        <v>0.112852373544839</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0471890133219284</v>
+        <v>0.4015573829917078</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004674427457293856</v>
+        <v>0.4576362343992332</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001521005011960322</v>
+        <v>0.01315787243075056</v>
       </c>
       <c r="G10" t="n">
-        <v>1.790149755431119e-05</v>
+        <v>3.215900747655931e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9317523278886541</v>
+        <v>0.4576362343992332</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp000435795</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp000435795</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4300.fa</t>
+          <t>even_MAG-GUT39606.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9017171071735207</v>
+        <v>0.9317523278886541</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01084500449782235</v>
+        <v>0.01484532482260906</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07867894048103734</v>
+        <v>0.0471890133219284</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003352825039239849</v>
+        <v>0.004674427457293856</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00540327314738922</v>
+        <v>0.001521005011960322</v>
       </c>
       <c r="G11" t="n">
-        <v>2.849660990471097e-06</v>
+        <v>1.790149755431119e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9017171071735207</v>
+        <v>0.9317523278886541</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -869,181 +869,181 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45512.fa</t>
+          <t>even_MAG-GUT4300.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01883617189017415</v>
+        <v>0.9017171071735207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1281044978192412</v>
+        <v>0.01084500449782235</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2610075645285622</v>
+        <v>0.07867894048103734</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5878445389579076</v>
+        <v>0.003352825039239849</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004107102814562042</v>
+        <v>0.00540327314738922</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001001239895528838</v>
+        <v>2.849660990471097e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5878445389579076</v>
+        <v>0.9017171071735207</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785</t>
+          <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785</t>
+          <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59019.fa</t>
+          <t>even_MAG-GUT45512.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9394990262036664</v>
+        <v>0.01883617189017415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01274627369577705</v>
+        <v>0.1281044978192412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04312870615152792</v>
+        <v>0.2610075645285622</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003368516814304347</v>
+        <v>0.5878445389579076</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001251485490879899</v>
+        <v>0.004107102814562042</v>
       </c>
       <c r="G13" t="n">
-        <v>5.991643844247923e-06</v>
+        <v>0.0001001239895528838</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9394990262036664</v>
+        <v>0.5878445389579076</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp000435795</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp000435795</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79996.fa</t>
+          <t>even_MAG-GUT59019.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01349542896397797</v>
+        <v>0.9394990262036664</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05458993710106417</v>
+        <v>0.01274627369577705</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09807185490537898</v>
+        <v>0.04312870615152792</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8270801387309819</v>
+        <v>0.003368516814304347</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006651444103398118</v>
+        <v>0.001251485490879899</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001111961951989211</v>
+        <v>5.991643844247923e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8270801387309819</v>
+        <v>0.9394990262036664</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785</t>
+          <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp900066785</t>
+          <t>s__CAG-81 sp000435795</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92002.fa</t>
+          <t>even_MAG-GUT79996.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9594782488115825</v>
+        <v>0.01349542896397797</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01337901020348257</v>
+        <v>0.05458993710106417</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01825373572205852</v>
+        <v>0.09807185490537898</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008086100692317789</v>
+        <v>0.8270801387309819</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0007789503715961792</v>
+        <v>0.006651444103398118</v>
       </c>
       <c r="G15" t="n">
-        <v>2.395419896242344e-05</v>
+        <v>0.0001111961951989211</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9594782488115825</v>
+        <v>0.8270801387309819</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp000435795</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>s__CAG-81 sp000435795</t>
+          <t>s__CAG-81 sp900066785</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92007.fa</t>
+          <t>even_MAG-GUT92002.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9596922281338496</v>
+        <v>0.9594782488115825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01367984446270705</v>
+        <v>0.01337901020348257</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01141470392606492</v>
+        <v>0.01825373572205852</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01425370413158857</v>
+        <v>0.008086100692317789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0009458044599467209</v>
+        <v>0.0007789503715961792</v>
       </c>
       <c r="G16" t="n">
-        <v>1.371488584313899e-05</v>
+        <v>2.395419896242344e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9596922281338496</v>
+        <v>0.9594782488115825</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1059,29 +1059,29 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92002.fa</t>
+          <t>even_MAG-GUT92007.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9594782488115825</v>
+        <v>0.9596922281338496</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01337901020348257</v>
+        <v>0.01367984446270705</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01825373572205852</v>
+        <v>0.01141470392606492</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008086100692317789</v>
+        <v>0.01425370413158857</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0007789503715961792</v>
+        <v>0.0009458044599467209</v>
       </c>
       <c r="G17" t="n">
-        <v>2.395419896242344e-05</v>
+        <v>1.371488584313899e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9594782488115825</v>
+        <v>0.9596922281338496</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1089,44 +1089,6 @@
         </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>s__CAG-81 sp000435795</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92007.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9596922281338496</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01367984446270705</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.01141470392606492</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.01425370413158857</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0009458044599467209</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.371488584313899e-05</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.9596922281338496</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>s__CAG-81 sp000435795</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t>s__CAG-81 sp000435795</t>
         </is>
